--- a/Data Cleaning.xlsx
+++ b/Data Cleaning.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8efea02df87a7da9/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anushkagairola/Desktop/Misc/Miscellaneous/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{918F7B99-ED4F-4E6A-B25D-6076D5734501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7DB0C5B-8927-4BA3-BFA8-451291099601}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C736F752-5357-3F42-837D-D2F2F514CCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8A8AEDDF-6CE4-4054-B82E-F79E4928E19C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{8A8AEDDF-6CE4-4054-B82E-F79E4928E19C}"/>
   </bookViews>
   <sheets>
     <sheet name="Montgomery_Fleet_Equipment_Inve" sheetId="1" r:id="rId1"/>
+    <sheet name="h" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="32">
   <si>
     <t>Department</t>
   </si>
@@ -113,6 +114,9 @@
   </si>
   <si>
     <t>Environmental Protection</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -669,9 +673,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -709,7 +713,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -815,7 +819,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -957,7 +961,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -967,18 +971,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1282409C-30BF-4BDF-B17B-92D3E327D7BE}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.7265625" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,7 +993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1022,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1033,7 +1037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1044,7 +1048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1055,7 +1059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1066,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1077,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1088,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1099,7 +1103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1121,7 +1125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1132,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1143,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1154,7 +1158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1165,7 +1169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1187,7 +1191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1198,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1209,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1220,7 +1224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1231,7 +1235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1242,7 +1246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1253,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1264,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1275,7 +1279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1297,7 +1301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1308,7 +1312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1319,7 +1323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1330,7 +1334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1341,7 +1345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1352,7 +1356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1396,7 +1400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1418,7 +1422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1429,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1440,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1451,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1462,7 +1466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -1473,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -1484,7 +1488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -1495,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1506,7 +1510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -1517,7 +1521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -1528,7 +1532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -1539,7 +1543,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -1550,7 +1554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -1561,7 +1565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -1572,7 +1576,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -1583,7 +1587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -1605,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -1622,4 +1626,24 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665FA828-E550-C04D-B39E-1CD36E29F9F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>